--- a/BackTest/2020-01-11 BackTest ETC.xlsx
+++ b/BackTest/2020-01-11 BackTest ETC.xlsx
@@ -8151,430 +8151,396 @@
         <v>5720.666666666667</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5630</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5645</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5645</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F223" t="n">
+        <v>368.4</v>
+      </c>
+      <c r="G223" t="n">
+        <v>5718.5</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5655</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5650</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5655</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F224" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="G224" t="n">
+        <v>5716.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5650</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5650</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5650</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5650</v>
+      </c>
+      <c r="F225" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="G225" t="n">
+        <v>5714.666666666667</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5625</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5625</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5625</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5625</v>
+      </c>
+      <c r="F226" t="n">
+        <v>16.7382</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5712.666666666667</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
         <v>5640</v>
       </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
+      <c r="C227" t="n">
+        <v>5630</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5645</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5630</v>
+      </c>
+      <c r="F227" t="n">
+        <v>262.85</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5710.666666666667</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5645</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5645</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5645</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5645</v>
+      </c>
+      <c r="F228" t="n">
+        <v>94.1909</v>
+      </c>
+      <c r="G228" t="n">
+        <v>5709</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>5630</v>
+      </c>
+      <c r="K228" t="n">
+        <v>5630</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5645</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5660</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5660</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5645</v>
+      </c>
+      <c r="F229" t="n">
+        <v>168.113</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5707.833333333333</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>5645</v>
+      </c>
+      <c r="K229" t="n">
+        <v>5630</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>5670</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5670</v>
+      </c>
+      <c r="D230" t="n">
+        <v>5670</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5670</v>
+      </c>
+      <c r="F230" t="n">
+        <v>110.9343</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5706.75</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>5660</v>
+      </c>
+      <c r="K230" t="n">
+        <v>5630</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5675</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5675</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5675</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5675</v>
+      </c>
+      <c r="F231" t="n">
+        <v>33.415</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5705.583333333333</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>5670</v>
+      </c>
+      <c r="K231" t="n">
+        <v>5670</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5670</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5660</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5670</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5660</v>
+      </c>
+      <c r="F232" t="n">
+        <v>550.0375</v>
+      </c>
+      <c r="G232" t="n">
+        <v>5704.583333333333</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>5675</v>
+      </c>
+      <c r="K232" t="n">
+        <v>5670</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5630</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5645</v>
-      </c>
-      <c r="D223" t="n">
-        <v>5645</v>
-      </c>
-      <c r="E223" t="n">
-        <v>5630</v>
-      </c>
-      <c r="F223" t="n">
-        <v>368.4</v>
-      </c>
-      <c r="G223" t="n">
-        <v>5718.5</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>5655</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5650</v>
-      </c>
-      <c r="D224" t="n">
-        <v>5655</v>
-      </c>
-      <c r="E224" t="n">
-        <v>5650</v>
-      </c>
-      <c r="F224" t="n">
-        <v>55.75</v>
-      </c>
-      <c r="G224" t="n">
-        <v>5716.5</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>5655</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>5650</v>
-      </c>
-      <c r="C225" t="n">
-        <v>5650</v>
-      </c>
-      <c r="D225" t="n">
-        <v>5650</v>
-      </c>
-      <c r="E225" t="n">
-        <v>5650</v>
-      </c>
-      <c r="F225" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="G225" t="n">
-        <v>5714.666666666667</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>5650</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>5625</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5625</v>
-      </c>
-      <c r="D226" t="n">
-        <v>5625</v>
-      </c>
-      <c r="E226" t="n">
-        <v>5625</v>
-      </c>
-      <c r="F226" t="n">
-        <v>16.7382</v>
-      </c>
-      <c r="G226" t="n">
-        <v>5712.666666666667</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>5625</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>5640</v>
-      </c>
-      <c r="C227" t="n">
-        <v>5630</v>
-      </c>
-      <c r="D227" t="n">
-        <v>5645</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5630</v>
-      </c>
-      <c r="F227" t="n">
-        <v>262.85</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5710.666666666667</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>5640</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>5645</v>
-      </c>
-      <c r="C228" t="n">
-        <v>5645</v>
-      </c>
-      <c r="D228" t="n">
-        <v>5645</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5645</v>
-      </c>
-      <c r="F228" t="n">
-        <v>94.1909</v>
-      </c>
-      <c r="G228" t="n">
-        <v>5709</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>5645</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>5645</v>
-      </c>
-      <c r="C229" t="n">
-        <v>5660</v>
-      </c>
-      <c r="D229" t="n">
-        <v>5660</v>
-      </c>
-      <c r="E229" t="n">
-        <v>5645</v>
-      </c>
-      <c r="F229" t="n">
-        <v>168.113</v>
-      </c>
-      <c r="G229" t="n">
-        <v>5707.833333333333</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="n">
-        <v>5645</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>5670</v>
-      </c>
-      <c r="C230" t="n">
-        <v>5670</v>
-      </c>
-      <c r="D230" t="n">
-        <v>5670</v>
-      </c>
-      <c r="E230" t="n">
-        <v>5670</v>
-      </c>
-      <c r="F230" t="n">
-        <v>110.9343</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5706.75</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>5670</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>5675</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5675</v>
-      </c>
-      <c r="D231" t="n">
-        <v>5675</v>
-      </c>
-      <c r="E231" t="n">
-        <v>5675</v>
-      </c>
-      <c r="F231" t="n">
-        <v>33.415</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5705.583333333333</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>5675</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>5670</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5660</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5670</v>
-      </c>
-      <c r="E232" t="n">
-        <v>5660</v>
-      </c>
-      <c r="F232" t="n">
-        <v>550.0375</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5704.583333333333</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>5670</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8602,15 +8568,15 @@
         <v>5703.416666666667</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>5665</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>5670</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8643,15 +8609,15 @@
         <v>5702.5</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
         <v>5670</v>
       </c>
-      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,15 +8650,15 @@
         <v>5701.583333333333</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>5665</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>5670</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8725,15 +8691,15 @@
         <v>5700.416666666667</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>5665</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>5670</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8766,15 +8732,15 @@
         <v>5699.25</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>5660</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>5670</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,15 +8773,15 @@
         <v>5698.333333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>5665</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>5670</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8848,15 +8814,15 @@
         <v>5697.75</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>5690</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>5670</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,15 +8855,15 @@
         <v>5697.166666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>5710</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>5670</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8930,15 +8896,15 @@
         <v>5696.416666666667</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>5690</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>5670</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,15 +8937,15 @@
         <v>5695.916666666667</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>5710</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>5670</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,7 +8984,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>5670</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,7 +9025,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>5670</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9096,7 +9066,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>5670</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9135,7 +9107,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>5670</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9174,7 +9148,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>5670</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9213,7 +9189,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>5670</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9252,7 +9230,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>5670</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,7 +9271,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>5670</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,7 +9312,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>5670</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9369,7 +9353,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>5670</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9408,7 +9394,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>5670</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9447,7 +9435,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>5670</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,7 +9476,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>5670</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9525,7 +9517,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>5670</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9564,7 +9558,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>5670</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9603,7 +9599,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>5670</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,15 +9634,15 @@
         <v>5684.083333333333</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>5665</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>5670</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9677,15 +9675,15 @@
         <v>5682.333333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>5630</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>5670</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,15 +9716,15 @@
         <v>5680.75</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>5650</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>5670</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9759,15 +9757,15 @@
         <v>5680.666666666667</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>5680</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>5670</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,15 +9798,15 @@
         <v>5680.166666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>5670</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9841,15 +9839,15 @@
         <v>5680</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>5670</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9888,7 +9886,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>5670</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9927,7 +9927,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>5670</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9966,7 +9968,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>5670</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10005,7 +10009,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>5670</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10044,7 +10050,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>5670</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,7 +10091,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>5670</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,7 +10132,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>5670</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10161,7 +10173,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>5670</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,7 +10214,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>5670</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10239,7 +10255,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>5670</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10278,7 +10296,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>5670</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10317,7 +10337,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>5670</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10356,7 +10378,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>5670</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10395,7 +10419,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>5670</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10434,7 +10460,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>5670</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10473,7 +10501,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>5670</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10512,7 +10542,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>5670</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10551,7 +10583,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>5670</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,7 +10624,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>5670</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10629,7 +10665,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>5670</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10668,7 +10706,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>5670</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10707,7 +10747,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>5670</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10746,7 +10788,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>5670</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10785,7 +10829,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>5670</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10824,7 +10870,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>5670</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10863,7 +10911,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>5670</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10902,7 +10952,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>5670</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10941,7 +10993,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>5670</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,7 +11034,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>5670</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11019,7 +11075,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>5670</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11058,7 +11116,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>5670</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11097,7 +11157,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>5670</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,7 +11198,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>5670</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11175,7 +11239,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>5670</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11214,7 +11280,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>5670</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,17 +11318,19 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>5670</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>1</v>
+        <v>1.025864197530864</v>
       </c>
     </row>
     <row r="301">
@@ -11289,15 +11359,11 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11332,11 +11398,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11371,11 +11433,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11410,11 +11468,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11449,11 +11503,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11488,11 +11538,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11527,11 +11573,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11566,11 +11608,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11643,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11644,11 +11678,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11683,11 +11713,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11722,12 +11748,10 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11790,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -11825,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
@@ -11860,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest ETC.xlsx
+++ b/BackTest/2020-01-11 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2235.725930324278</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-2214.842530324278</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5705</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5705</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-2107.599530324278</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5710</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5705</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-2007.300030324278</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5720</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5705</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-1668.535330324278</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5730</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-1516.774430324278</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5765</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5730</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5730</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +720,14 @@
         <v>-1435.296730324278</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5770</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5770</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -718,8 +760,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>5770</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +799,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5770</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -814,10 +868,14 @@
         <v>210.246369675722</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5820</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5820</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -847,11 +905,19 @@
         <v>219.261969675722</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5820</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +949,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +985,19 @@
         <v>-107.108030324278</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5795</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1029,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1068,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1107,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,15 +1143,17 @@
         <v>-64.31703032427799</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>5800</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>5820</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,17 +1182,17 @@
         <v>792.120469675722</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>5795</v>
       </c>
       <c r="J21" t="n">
-        <v>5800</v>
+        <v>5820</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1123,17 +1223,17 @@
         <v>707.838969675722</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>5820</v>
       </c>
       <c r="J22" t="n">
-        <v>5800</v>
+        <v>5820</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1164,11 +1264,19 @@
         <v>707.838969675722</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5810</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1305,19 @@
         <v>1047.838969675722</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5810</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1233,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,11 +1385,19 @@
         <v>1554.073474993046</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5825</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1299,8 +1429,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1329,11 +1465,19 @@
         <v>1399.520274993046</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5820</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1362,11 +1506,19 @@
         <v>1432.991274993046</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5815</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1398,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1586,19 @@
         <v>1613.889374993046</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5825</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1463,9 +1629,17 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>5840</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1496,9 +1670,17 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1529,9 +1711,17 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>5880</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1562,9 +1752,17 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>5895</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1595,9 +1793,17 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>5880</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,9 +1834,17 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>5875</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1661,9 +1875,17 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>5875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1694,9 +1916,17 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>5875</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1727,9 +1957,17 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,9 +1998,17 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,11 +2037,19 @@
         <v>3417.729174993046</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,11 +2078,19 @@
         <v>3412.857574993046</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,11 +2119,19 @@
         <v>3412.857574993046</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5830</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,9 +2162,17 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>5830</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,11 +2201,19 @@
         <v>3351.092874993046</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5820</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1958,9 +2244,17 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>5830</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1991,9 +2285,17 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>5810</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2025,8 +2327,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2058,8 +2366,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2091,8 +2405,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2124,8 +2444,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2157,8 +2483,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2190,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2223,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2256,8 +2600,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2289,8 +2639,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2322,8 +2678,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2355,8 +2717,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2388,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2421,8 +2795,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2454,8 +2834,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2873,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2520,8 +2912,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2553,8 +2951,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2586,8 +2990,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2619,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2652,8 +3068,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2685,8 +3107,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2718,8 +3146,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2751,8 +3185,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2784,8 +3224,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2817,8 +3263,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2850,8 +3302,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2883,8 +3341,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2916,8 +3380,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2949,8 +3419,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2982,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3015,8 +3497,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3048,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3081,8 +3575,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3114,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3147,8 +3653,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3180,8 +3692,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3213,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3246,8 +3770,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3279,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3312,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3884,17 @@
         <v>6571.514624737508</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3378,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3411,8 +3965,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3444,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3477,8 +4043,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3510,8 +4082,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3543,8 +4121,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3576,8 +4160,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3609,8 +4199,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +4238,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3675,8 +4277,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,11 +4313,17 @@
         <v>6813.429124737509</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +4352,17 @@
         <v>6949.429124737509</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,11 +4391,17 @@
         <v>7130.623024737509</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +4430,17 @@
         <v>6917.506324737509</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,11 +4469,17 @@
         <v>6917.506324737509</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,11 +4508,17 @@
         <v>6917.506324737509</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,11 +4547,17 @@
         <v>6834.739224737509</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3939,8 +4589,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,11 +4625,17 @@
         <v>6809.739224737509</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4005,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4038,8 +4706,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4071,8 +4745,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4104,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4137,8 +4823,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4170,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4203,8 +4901,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4236,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4269,8 +4979,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,11 +5015,17 @@
         <v>10666.36872473751</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,11 +5054,17 @@
         <v>11042.17432473751</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,11 +5093,17 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,13 +5132,19 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5820</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>1.016477663230241</v>
       </c>
       <c r="M121" t="inlineStr"/>
     </row>
@@ -4464,7 +5204,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4497,7 +5237,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4530,7 +5270,7 @@
         <v>11166.62142473751</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4563,7 +5303,7 @@
         <v>11140.58312473751</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4596,7 +5336,7 @@
         <v>10631.85412473751</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4629,7 +5369,7 @@
         <v>10658.46482473751</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4662,7 +5402,7 @@
         <v>11005.44082473751</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4695,7 +5435,7 @@
         <v>10911.67602473751</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4728,7 +5468,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4761,7 +5501,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4794,7 +5534,7 @@
         <v>11071.71142473751</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4827,7 +5567,7 @@
         <v>11071.43812473751</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4860,7 +5600,7 @@
         <v>10947.35592473751</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4893,7 +5633,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4926,7 +5666,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4959,7 +5699,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4992,7 +5732,7 @@
         <v>10947.55412473751</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5025,7 +5765,7 @@
         <v>11003.29612473751</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5058,7 +5798,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5091,7 +5831,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5124,7 +5864,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5157,7 +5897,7 @@
         <v>10873.80412473751</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5190,7 +5930,7 @@
         <v>10404.30122473751</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5223,7 +5963,7 @@
         <v>10412.62382473751</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5256,7 +5996,7 @@
         <v>10196.81822473751</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5289,7 +6029,7 @@
         <v>10209.09872473751</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5322,7 +6062,7 @@
         <v>9776.48002473751</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5355,7 +6095,7 @@
         <v>9874.630624737511</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5388,7 +6128,7 @@
         <v>9884.739924737511</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5421,7 +6161,7 @@
         <v>9867.383424737511</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5454,7 +6194,7 @@
         <v>10120.55752473751</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5520,7 +6260,7 @@
         <v>10096.26992473751</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5619,7 +6359,7 @@
         <v>9746.045224737512</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5652,7 +6392,7 @@
         <v>9746.045224737512</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5685,7 +6425,7 @@
         <v>9844.314624737512</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5718,7 +6458,7 @@
         <v>9823.385924737511</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5751,7 +6491,7 @@
         <v>9783.507124737511</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5784,7 +6524,7 @@
         <v>9783.507124737511</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5817,7 +6557,7 @@
         <v>9789.10982473751</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5850,7 +6590,7 @@
         <v>9789.10982473751</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5883,7 +6623,7 @@
         <v>9889.10982473751</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5916,7 +6656,7 @@
         <v>9825.69272473751</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5949,7 +6689,7 @@
         <v>9659.27992473751</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5982,7 +6722,7 @@
         <v>9377.832224737509</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6015,7 +6755,7 @@
         <v>9449.845124737509</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6048,7 +6788,7 @@
         <v>10472.62522473751</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6081,7 +6821,7 @@
         <v>10188.90702473751</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6114,7 +6854,7 @@
         <v>10416.74592473751</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6147,7 +6887,7 @@
         <v>10318.28862473751</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6180,7 +6920,7 @@
         <v>10576.16982473751</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6213,7 +6953,7 @@
         <v>10535.58582473751</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6246,7 +6986,7 @@
         <v>11114.26892473751</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6279,7 +7019,7 @@
         <v>11114.26892473751</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6312,7 +7052,7 @@
         <v>11007.33072473751</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6345,7 +7085,7 @@
         <v>10825.80592473751</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6378,7 +7118,7 @@
         <v>10830.33577931407</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6411,7 +7151,7 @@
         <v>10829.99237931407</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6444,7 +7184,7 @@
         <v>10829.99237931407</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6708,7 +7448,7 @@
         <v>10756.62337931407</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6972,7 +7712,7 @@
         <v>9931.838279314074</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7005,7 +7745,7 @@
         <v>9931.838279314074</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7038,7 +7778,7 @@
         <v>9859.959379314074</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7071,7 +7811,7 @@
         <v>9860.959379314074</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7104,7 +7844,7 @@
         <v>9857.959379314074</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7170,7 +7910,7 @@
         <v>9956.259379314073</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7500,7 +8240,7 @@
         <v>9596.112014886856</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7533,7 +8273,7 @@
         <v>9596.112014886856</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7566,7 +8306,7 @@
         <v>9596.112014886856</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9480,17 +10220,11 @@
         <v>4898.452235078329</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9523,11 +10257,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9560,11 +10290,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9593,17 +10319,11 @@
         <v>4667.752235078329</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9632,17 +10352,11 @@
         <v>4647.71913507833</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>5655</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9671,17 +10385,11 @@
         <v>4610.373235078329</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>5650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9710,17 +10418,11 @@
         <v>4247.264235078329</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9753,11 +10455,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9786,17 +10484,11 @@
         <v>4671.414235078329</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>5645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +10521,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9866,11 +10554,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +10587,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9940,11 +10620,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9977,11 +10653,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10010,17 +10682,11 @@
         <v>5290.764235078329</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10049,17 +10715,11 @@
         <v>5324.179235078329</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10088,17 +10748,11 @@
         <v>4774.141735078329</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>5675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10131,11 +10785,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10164,17 +10814,11 @@
         <v>4927.389535078329</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10203,17 +10847,11 @@
         <v>4913.085935078328</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>5670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10242,17 +10880,11 @@
         <v>4913.085935078328</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10281,17 +10913,11 @@
         <v>4736.848235078329</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10320,17 +10946,11 @@
         <v>4784.620835078329</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>5660</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10359,17 +10979,11 @@
         <v>4881.120835078329</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>5665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10398,17 +11012,11 @@
         <v>4941.213635078329</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>5690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10437,17 +11045,11 @@
         <v>4941.213635078329</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>5710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10480,11 +11082,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10517,11 +11115,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10554,11 +11148,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10591,11 +11181,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10628,11 +11214,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10665,11 +11247,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10702,11 +11280,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10739,11 +11313,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10772,17 +11342,11 @@
         <v>4255.07933507833</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>5695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10815,11 +11379,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10852,11 +11412,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10885,17 +11441,11 @@
         <v>4371.37133507833</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>5690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10928,11 +11478,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +11511,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10998,17 +11540,11 @@
         <v>4333.85883507833</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>5690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11041,11 +11577,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11078,11 +11610,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11111,17 +11639,11 @@
         <v>4003.92263507833</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>5640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11154,11 +11676,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11191,11 +11709,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11228,11 +11742,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11265,11 +11775,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11302,11 +11808,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11339,11 +11841,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11376,11 +11874,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11413,11 +11907,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11450,11 +11940,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11487,11 +11973,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +12006,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11557,17 +12035,11 @@
         <v>2779.516235078329</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>5715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11596,17 +12068,15 @@
         <v>2779.516235078329</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>5720</v>
       </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11635,15 +12105,15 @@
         <v>3205.055135078329</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
         <v>5720</v>
       </c>
-      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L332" t="n">
@@ -11674,12 +12144,12 @@
         <v>3205.055135078329</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>5725</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>5720</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11713,12 +12183,12 @@
         <v>3205.055135078329</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>5725</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>5720</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11752,10 +12222,14 @@
         <v>3205.055135078329</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>5725</v>
+      </c>
+      <c r="J335" t="n">
+        <v>5720</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,7 +12266,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>5720</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11829,7 +12305,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>5720</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11866,7 +12344,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>5720</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11900,12 +12380,12 @@
         <v>3958.906668063534</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>5730</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>5720</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11939,12 +12419,12 @@
         <v>3783.094768063534</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>5750</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>5720</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11981,7 +12461,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>5720</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12018,7 +12500,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>5720</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,7 +12539,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>5720</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12092,7 +12578,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>5720</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12129,7 +12617,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>5720</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,7 +12656,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>5720</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,7 +12695,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>5720</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12240,7 +12734,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>5720</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,7 +12773,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>5720</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,7 +12812,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>5720</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12351,7 +12851,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>5720</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,7 +12890,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>5720</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12425,7 +12929,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>5720</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12462,7 +12968,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>5720</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12499,7 +13007,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>5720</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12536,7 +13046,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>5720</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,7 +13085,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>5720</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12610,7 +13124,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>5720</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12647,7 +13163,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>5720</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12684,7 +13202,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>5720</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,7 +13241,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>5720</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12758,7 +13280,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>5720</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,7 +13319,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>5720</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12832,7 +13358,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>5720</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12869,7 +13397,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>5720</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12906,7 +13436,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>5720</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12943,7 +13475,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>5720</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,16 +13511,20 @@
         <v>6913.759493482405</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>5720</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L368" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
       <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -13012,11 +13550,17 @@
         <v>7671.778293482404</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13045,11 +13589,17 @@
         <v>7170.915693482404</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13081,8 +13631,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13114,8 +13670,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13144,11 +13706,17 @@
         <v>7041.407793482404</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13180,8 +13748,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13213,8 +13787,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13246,8 +13826,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13279,8 +13865,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13312,8 +13904,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13345,8 +13943,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13378,8 +13982,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13411,8 +14021,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13444,8 +14060,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13477,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13510,8 +14138,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13543,8 +14177,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13576,8 +14216,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13609,8 +14255,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13642,8 +14294,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13675,8 +14333,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13708,8 +14372,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13741,8 +14411,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13774,8 +14450,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13807,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13840,8 +14528,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13873,8 +14567,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13906,8 +14606,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13939,8 +14645,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13972,8 +14684,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14005,8 +14723,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14038,8 +14762,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14071,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14101,11 +14837,17 @@
         <v>8303.652804772726</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14134,11 +14876,17 @@
         <v>8760.729604772727</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14170,8 +14918,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14200,11 +14954,17 @@
         <v>10100.63170477273</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14233,11 +14993,17 @@
         <v>11180.74370477273</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14266,11 +15032,17 @@
         <v>12361.63430477273</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14299,11 +15071,17 @@
         <v>11715.89650477273</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14332,11 +15110,17 @@
         <v>12113.34630477273</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14365,11 +15149,17 @@
         <v>11053.35130477273</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14398,13 +15188,19 @@
         <v>10484.67960477273</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>5720</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L411" t="n">
-        <v>1</v>
+        <v>1.032587412587413</v>
       </c>
       <c r="M411" t="inlineStr"/>
     </row>
@@ -14431,7 +15227,7 @@
         <v>9614.842604772728</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14464,7 +15260,7 @@
         <v>9648.973704772729</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14497,7 +15293,7 @@
         <v>9562.055504772728</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14530,7 +15326,7 @@
         <v>9787.896404772728</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14563,7 +15359,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14596,7 +15392,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14629,7 +15425,7 @@
         <v>9520.580404772727</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14662,7 +15458,7 @@
         <v>9518.199004772727</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14695,7 +15491,7 @@
         <v>9674.030704772727</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14728,7 +15524,7 @@
         <v>10049.40210477273</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14761,7 +15557,7 @@
         <v>9675.115404772727</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14794,7 +15590,7 @@
         <v>8743.068504772727</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14827,7 +15623,7 @@
         <v>8843.868504772727</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14860,7 +15656,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14893,7 +15689,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14926,7 +15722,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14959,7 +15755,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14992,7 +15788,7 @@
         <v>10579.75428354274</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15025,7 +15821,7 @@
         <v>10473.04128354274</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15058,7 +15854,7 @@
         <v>10599.27898354274</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15091,7 +15887,7 @@
         <v>11349.25988354274</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15124,7 +15920,7 @@
         <v>11301.93928354274</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15157,7 +15953,7 @@
         <v>11469.29622334207</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15190,7 +15986,7 @@
         <v>11623.91682334207</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15223,7 +16019,7 @@
         <v>12114.48892334207</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15289,7 +16085,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15322,7 +16118,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15465,6 +16261,6 @@
       <c r="M443" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ETC.xlsx
+++ b/BackTest/2020-01-11 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,11 +640,9 @@
         <v>-1516.774430324278</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>5730</v>
       </c>
@@ -720,14 +718,10 @@
         <v>-1435.296730324278</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5770</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -760,14 +754,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>5770</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +787,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5770</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -868,14 +850,10 @@
         <v>210.246369675722</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5820</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5820</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -905,19 +883,11 @@
         <v>219.261969675722</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5820</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -946,17 +916,11 @@
         <v>119.261969675722</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,19 +949,11 @@
         <v>-107.108030324278</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5795</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1026,17 +982,11 @@
         <v>-95.99803032427799</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1065,17 +1015,11 @@
         <v>6.050669675722006</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1104,17 +1048,11 @@
         <v>-53.21703032427799</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,17 +1081,11 @@
         <v>-64.31703032427799</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1182,19 +1114,11 @@
         <v>792.120469675722</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5795</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1223,19 +1147,11 @@
         <v>707.838969675722</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5820</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,19 +1180,11 @@
         <v>707.838969675722</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5810</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1305,19 +1213,11 @@
         <v>1047.838969675722</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5810</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1349,14 +1249,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1385,19 +1279,11 @@
         <v>1554.073474993046</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5825</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1315,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1465,19 +1345,11 @@
         <v>1399.520274993046</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5820</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1506,19 +1378,11 @@
         <v>1432.991274993046</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5815</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1547,17 +1411,11 @@
         <v>1477.028074993046</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1586,19 +1444,11 @@
         <v>1613.889374993046</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5825</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1627,19 +1477,11 @@
         <v>2010.868174993046</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5840</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1668,19 +1510,11 @@
         <v>3435.182074993046</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1709,19 +1543,11 @@
         <v>3843.504474993046</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1750,19 +1576,11 @@
         <v>3683.349974993046</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5895</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1791,19 +1609,11 @@
         <v>3646.438474993046</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1832,19 +1642,11 @@
         <v>3646.438474993046</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1873,19 +1675,11 @@
         <v>3646.438474993046</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1914,19 +1708,11 @@
         <v>3611.259174993046</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1955,19 +1741,11 @@
         <v>3611.259174993046</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1996,19 +1774,11 @@
         <v>3611.259174993046</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2037,19 +1807,11 @@
         <v>3417.729174993046</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2078,19 +1840,11 @@
         <v>3412.857574993046</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2119,19 +1873,11 @@
         <v>3412.857574993046</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5830</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2160,19 +1906,11 @@
         <v>3315.182074993046</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5830</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2201,19 +1939,11 @@
         <v>3351.092874993046</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5820</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2242,19 +1972,11 @@
         <v>2963.771174993046</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5830</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2283,19 +2005,11 @@
         <v>3061.446674993046</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5810</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2327,14 +2041,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2366,14 +2074,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2405,14 +2107,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2140,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2483,14 +2173,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2522,14 +2206,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2561,14 +2239,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2600,14 +2272,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2639,14 +2305,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2675,17 +2335,11 @@
         <v>3010.312874993046</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2717,14 +2371,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2756,14 +2404,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2437,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2834,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2873,14 +2503,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2912,14 +2536,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2951,14 +2569,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2990,14 +2602,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2635,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2668,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3107,14 +2701,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +2734,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +2800,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +2833,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +2866,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3341,14 +2899,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +2932,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +2965,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +2998,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +3031,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3064,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3575,14 +3097,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3130,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3163,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3196,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3229,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3262,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3809,14 +3295,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3848,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3361,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3926,14 +3394,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3965,14 +3427,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4004,14 +3460,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4043,14 +3493,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4082,14 +3526,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4121,14 +3559,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4160,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4199,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4238,14 +3658,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4277,14 +3691,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4316,14 +3724,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4355,14 +3757,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4394,14 +3790,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +3823,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +3856,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +3889,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4550,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +3955,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4628,14 +3988,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +4021,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4703,17 +4051,11 @@
         <v>7392.367924737509</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4745,14 +4087,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4784,14 +4120,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4823,14 +4153,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4862,14 +4186,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4901,14 +4219,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4940,14 +4252,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4979,14 +4285,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5018,14 +4318,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5057,14 +4351,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5096,14 +4384,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5132,19 +4414,13 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>1.016477663230241</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
     </row>
@@ -5270,7 +4546,7 @@
         <v>11166.62142473751</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5303,7 +4579,7 @@
         <v>11140.58312473751</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5336,7 +4612,7 @@
         <v>10631.85412473751</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5369,7 +4645,7 @@
         <v>10658.46482473751</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5402,7 +4678,7 @@
         <v>11005.44082473751</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5435,7 +4711,7 @@
         <v>10911.67602473751</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5468,7 +4744,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5501,7 +4777,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5534,7 +4810,7 @@
         <v>11071.71142473751</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5567,7 +4843,7 @@
         <v>11071.43812473751</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5600,7 +4876,7 @@
         <v>10947.35592473751</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5633,7 +4909,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5666,7 +4942,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5699,7 +4975,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5732,7 +5008,7 @@
         <v>10947.55412473751</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5765,7 +5041,7 @@
         <v>11003.29612473751</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5798,7 +5074,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5831,7 +5107,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5864,7 +5140,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5897,7 +5173,7 @@
         <v>10873.80412473751</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5930,7 +5206,7 @@
         <v>10404.30122473751</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5963,7 +5239,7 @@
         <v>10412.62382473751</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5996,7 +5272,7 @@
         <v>10196.81822473751</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6029,7 +5305,7 @@
         <v>10209.09872473751</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6062,7 +5338,7 @@
         <v>9776.48002473751</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6095,7 +5371,7 @@
         <v>9874.630624737511</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6128,7 +5404,7 @@
         <v>9884.739924737511</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6161,7 +5437,7 @@
         <v>9867.383424737511</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6194,7 +5470,7 @@
         <v>10120.55752473751</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6260,7 +5536,7 @@
         <v>10096.26992473751</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6359,7 +5635,7 @@
         <v>9746.045224737512</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6392,7 +5668,7 @@
         <v>9746.045224737512</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6425,7 +5701,7 @@
         <v>9844.314624737512</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6458,7 +5734,7 @@
         <v>9823.385924737511</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6491,7 +5767,7 @@
         <v>9783.507124737511</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6524,7 +5800,7 @@
         <v>9783.507124737511</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6557,7 +5833,7 @@
         <v>9789.10982473751</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6590,7 +5866,7 @@
         <v>9789.10982473751</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6623,7 +5899,7 @@
         <v>9889.10982473751</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6656,7 +5932,7 @@
         <v>9825.69272473751</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6689,7 +5965,7 @@
         <v>9659.27992473751</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6722,7 +5998,7 @@
         <v>9377.832224737509</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6755,7 +6031,7 @@
         <v>9449.845124737509</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6788,7 +6064,7 @@
         <v>10472.62522473751</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6821,7 +6097,7 @@
         <v>10188.90702473751</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6854,7 +6130,7 @@
         <v>10416.74592473751</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6887,7 +6163,7 @@
         <v>10318.28862473751</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6920,7 +6196,7 @@
         <v>10576.16982473751</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6953,7 +6229,7 @@
         <v>10535.58582473751</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6986,7 +6262,7 @@
         <v>11114.26892473751</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7019,7 +6295,7 @@
         <v>11114.26892473751</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7052,7 +6328,7 @@
         <v>11007.33072473751</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7085,7 +6361,7 @@
         <v>10825.80592473751</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7151,7 +6427,7 @@
         <v>10829.99237931407</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7448,7 +6724,7 @@
         <v>10756.62337931407</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7712,7 +6988,7 @@
         <v>9931.838279314074</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7745,7 +7021,7 @@
         <v>9931.838279314074</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7778,7 +7054,7 @@
         <v>9859.959379314074</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7811,7 +7087,7 @@
         <v>9860.959379314074</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7844,7 +7120,7 @@
         <v>9857.959379314074</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7910,7 +7186,7 @@
         <v>9956.259379314073</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8240,7 +7516,7 @@
         <v>9596.112014886856</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8273,7 +7549,7 @@
         <v>9596.112014886856</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8306,7 +7582,7 @@
         <v>9596.112014886856</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -12068,14 +11344,10 @@
         <v>2779.516235078329</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>5720</v>
-      </c>
-      <c r="J331" t="n">
-        <v>5720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
@@ -12108,14 +11380,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12147,14 +11413,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12186,14 +11446,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12222,19 +11476,11 @@
         <v>3205.055135078329</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>5725</v>
-      </c>
-      <c r="J335" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12266,14 +11512,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12305,14 +11545,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12344,14 +11578,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12383,14 +11611,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12422,14 +11644,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12461,14 +11677,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12500,14 +11710,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12539,14 +11743,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12578,14 +11776,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12617,14 +11809,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12656,14 +11842,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12695,14 +11875,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12734,14 +11908,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12773,14 +11941,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12809,17 +11971,11 @@
         <v>4116.694335078329</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12848,17 +12004,11 @@
         <v>4152.72323507833</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12887,17 +12037,11 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12926,17 +12070,11 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12965,17 +12103,11 @@
         <v>4119.36523507833</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13004,17 +12136,11 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13043,17 +12169,11 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13082,17 +12202,11 @@
         <v>6199.21713507833</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13121,17 +12235,11 @@
         <v>6125.72663507833</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13160,17 +12268,11 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13199,17 +12301,11 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13238,17 +12334,11 @@
         <v>6134.05743507833</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13277,17 +12367,11 @@
         <v>6132.95283507833</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13316,17 +12400,11 @@
         <v>5640.99113507833</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13355,17 +12433,11 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13394,17 +12466,11 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13433,17 +12499,11 @@
         <v>6482.941004772727</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13472,17 +12532,11 @@
         <v>7104.929293482404</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13514,14 +12568,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13553,14 +12601,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13592,14 +12634,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13631,14 +12667,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13670,14 +12700,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13709,14 +12733,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13748,14 +12766,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13787,14 +12799,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13826,14 +12832,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13865,14 +12865,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13901,17 +12895,11 @@
         <v>6691.479693482404</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13940,17 +12928,11 @@
         <v>6548.081693482404</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13979,17 +12961,11 @@
         <v>6697.028293482404</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14018,17 +12994,11 @@
         <v>6544.674093482405</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14057,17 +13027,11 @@
         <v>6519.231293482405</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14096,17 +13060,11 @@
         <v>6524.431293482405</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14138,14 +13096,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14177,14 +13129,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14216,14 +13162,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14255,14 +13195,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14294,14 +13228,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14333,14 +13261,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14372,14 +13294,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14411,14 +13327,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14450,14 +13360,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14489,14 +13393,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14528,14 +13426,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14567,14 +13459,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14606,14 +13492,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14645,14 +13525,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14684,14 +13558,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14723,14 +13591,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14762,14 +13624,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14801,14 +13657,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14840,14 +13690,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14879,14 +13723,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14918,14 +13756,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14957,14 +13789,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14996,14 +13822,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15035,14 +13855,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15074,14 +13888,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15113,14 +13921,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15152,14 +13954,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15188,19 +13984,13 @@
         <v>10484.67960477273</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
-        <v>1.032587412587413</v>
+        <v>1</v>
       </c>
       <c r="M411" t="inlineStr"/>
     </row>
@@ -15227,7 +14017,7 @@
         <v>9614.842604772728</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15260,7 +14050,7 @@
         <v>9648.973704772729</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15293,7 +14083,7 @@
         <v>9562.055504772728</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15326,7 +14116,7 @@
         <v>9787.896404772728</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15359,7 +14149,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15392,7 +14182,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15425,7 +14215,7 @@
         <v>9520.580404772727</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15458,7 +14248,7 @@
         <v>9518.199004772727</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15491,7 +14281,7 @@
         <v>9674.030704772727</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15524,7 +14314,7 @@
         <v>10049.40210477273</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15557,7 +14347,7 @@
         <v>9675.115404772727</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15590,7 +14380,7 @@
         <v>8743.068504772727</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15623,7 +14413,7 @@
         <v>8843.868504772727</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15656,7 +14446,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15689,7 +14479,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15722,7 +14512,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15755,7 +14545,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15788,7 +14578,7 @@
         <v>10579.75428354274</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15821,7 +14611,7 @@
         <v>10473.04128354274</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15854,7 +14644,7 @@
         <v>10599.27898354274</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15887,7 +14677,7 @@
         <v>11349.25988354274</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15920,7 +14710,7 @@
         <v>11301.93928354274</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15953,7 +14743,7 @@
         <v>11469.29622334207</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15986,7 +14776,7 @@
         <v>11623.91682334207</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16019,7 +14809,7 @@
         <v>12114.48892334207</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16085,7 +14875,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16118,7 +14908,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16261,6 +15051,6 @@
       <c r="M443" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ETC.xlsx
+++ b/BackTest/2020-01-11 BackTest ETC.xlsx
@@ -640,9 +640,11 @@
         <v>-1516.774430324278</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5765</v>
+      </c>
       <c r="J7" t="n">
         <v>5730</v>
       </c>
@@ -679,9 +681,11 @@
         <v>-1516.774430324278</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5770</v>
+      </c>
       <c r="J8" t="n">
         <v>5730</v>
       </c>
@@ -718,10 +722,14 @@
         <v>-1435.296730324278</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5770</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5770</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -751,11 +759,19 @@
         <v>-24.51443032427801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5790</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5770</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -787,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5770</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -850,7 +872,7 @@
         <v>210.246369675722</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -883,7 +905,7 @@
         <v>219.261969675722</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -916,7 +938,7 @@
         <v>119.261969675722</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -949,7 +971,7 @@
         <v>-107.108030324278</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -982,7 +1004,7 @@
         <v>-95.99803032427799</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1015,7 +1037,7 @@
         <v>6.050669675722006</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1048,7 +1070,7 @@
         <v>-53.21703032427799</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1081,7 +1103,7 @@
         <v>-64.31703032427799</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1114,10 +1136,14 @@
         <v>792.120469675722</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5795</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5795</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1147,11 +1173,17 @@
         <v>707.838969675722</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5795</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1180,11 +1212,19 @@
         <v>707.838969675722</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5810</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5795</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1213,10 +1253,14 @@
         <v>1047.838969675722</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5810</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5810</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1249,8 +1293,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5810</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1282,8 +1332,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5810</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1411,7 +1467,7 @@
         <v>1477.028074993046</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1444,7 +1500,7 @@
         <v>1613.889374993046</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1477,7 +1533,7 @@
         <v>2010.868174993046</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2335,7 +2391,7 @@
         <v>3010.312874993046</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -4051,7 +4107,7 @@
         <v>7392.367924737509</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4249,7 +4305,7 @@
         <v>10638.36872473751</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4348,7 +4404,7 @@
         <v>11042.17432473751</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4381,7 +4437,7 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4414,7 +4470,7 @@
         <v>11387.52202473751</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4447,7 +4503,7 @@
         <v>11382.95642473751</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4480,7 +4536,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4513,7 +4569,7 @@
         <v>11066.62142473751</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4546,7 +4602,7 @@
         <v>11166.62142473751</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4579,7 +4635,7 @@
         <v>11140.58312473751</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4612,7 +4668,7 @@
         <v>10631.85412473751</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4645,7 +4701,7 @@
         <v>10658.46482473751</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4678,7 +4734,7 @@
         <v>11005.44082473751</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4711,7 +4767,7 @@
         <v>10911.67602473751</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4744,7 +4800,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4777,7 +4833,7 @@
         <v>11070.71142473751</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4810,7 +4866,7 @@
         <v>11071.71142473751</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4843,7 +4899,7 @@
         <v>11071.43812473751</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4876,7 +4932,7 @@
         <v>10947.35592473751</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4909,7 +4965,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4942,7 +4998,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4975,7 +5031,7 @@
         <v>10864.85412473751</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5008,7 +5064,7 @@
         <v>10947.55412473751</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5041,7 +5097,7 @@
         <v>11003.29612473751</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5074,7 +5130,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5107,7 +5163,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5140,7 +5196,7 @@
         <v>10872.80412473751</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5173,7 +5229,7 @@
         <v>10873.80412473751</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5206,7 +5262,7 @@
         <v>10404.30122473751</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -11971,7 +12027,7 @@
         <v>4116.694335078329</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12004,7 +12060,7 @@
         <v>4152.72323507833</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12037,7 +12093,7 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12070,7 +12126,7 @@
         <v>4180.387235078329</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12103,7 +12159,7 @@
         <v>4119.36523507833</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12136,7 +12192,7 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12169,7 +12225,7 @@
         <v>4297.95653507833</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12202,7 +12258,7 @@
         <v>6199.21713507833</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12235,7 +12291,7 @@
         <v>6125.72663507833</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12268,7 +12324,7 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12301,7 +12357,7 @@
         <v>6125.47663507833</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12334,7 +12390,7 @@
         <v>6134.05743507833</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12367,7 +12423,7 @@
         <v>6132.95283507833</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12400,7 +12456,7 @@
         <v>5640.99113507833</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12433,7 +12489,7 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12466,7 +12522,7 @@
         <v>5727.86733507833</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12499,7 +12555,7 @@
         <v>6482.941004772727</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12532,7 +12588,7 @@
         <v>7104.929293482404</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12895,7 +12951,7 @@
         <v>6691.479693482404</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12928,7 +12984,7 @@
         <v>6548.081693482404</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12961,7 +13017,7 @@
         <v>6697.028293482404</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12994,7 +13050,7 @@
         <v>6544.674093482405</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13027,7 +13083,7 @@
         <v>6519.231293482405</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13060,7 +13116,7 @@
         <v>6524.431293482405</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13885,7 +13941,7 @@
         <v>11715.89650477273</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13918,7 +13974,7 @@
         <v>12113.34630477273</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13951,7 +14007,7 @@
         <v>11053.35130477273</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13984,7 +14040,7 @@
         <v>10484.67960477273</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14017,7 +14073,7 @@
         <v>9614.842604772728</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14050,7 +14106,7 @@
         <v>9648.973704772729</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14083,7 +14139,7 @@
         <v>9562.055504772728</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14116,7 +14172,7 @@
         <v>9787.896404772728</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14149,7 +14205,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14182,7 +14238,7 @@
         <v>9583.019404772727</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14215,7 +14271,7 @@
         <v>9520.580404772727</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14248,7 +14304,7 @@
         <v>9518.199004772727</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14281,7 +14337,7 @@
         <v>9674.030704772727</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14314,7 +14370,7 @@
         <v>10049.40210477273</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14347,7 +14403,7 @@
         <v>9675.115404772727</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14380,7 +14436,7 @@
         <v>8743.068504772727</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14446,7 +14502,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14479,7 +14535,7 @@
         <v>9606.561692388565</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14512,7 +14568,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14545,7 +14601,7 @@
         <v>9494.413692388565</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14578,7 +14634,7 @@
         <v>10579.75428354274</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14611,7 +14667,7 @@
         <v>10473.04128354274</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14644,7 +14700,7 @@
         <v>10599.27898354274</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14677,7 +14733,7 @@
         <v>11349.25988354274</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14710,7 +14766,7 @@
         <v>11301.93928354274</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14743,7 +14799,7 @@
         <v>11469.29622334207</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14776,7 +14832,7 @@
         <v>11623.91682334207</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14809,7 +14865,7 @@
         <v>12114.48892334207</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14842,7 +14898,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14875,7 +14931,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14908,7 +14964,7 @@
         <v>10637.44531908141</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14941,7 +14997,7 @@
         <v>9256.095019081415</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14974,7 +15030,7 @@
         <v>9252.091819081415</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15007,7 +15063,7 @@
         <v>9013.185419081416</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15040,7 +15096,7 @@
         <v>8930.047819081416</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
